--- a/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_VD/CEngDsT_VD.xlsx
+++ b/spec/ASW/Eng/Coolnt/CEngDsT/CEngDsT_VD/CEngDsT_VD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\newEMS\spec\ASW\Eng\Coolnt\CEngDsT\CEngDsT_VD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27014C1E-2985-4BCC-9C6B-A9B927F3D763}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F060E-38CA-448B-9862-7A90EE0F720D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="62">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +239,19 @@
   </si>
   <si>
     <t>Enum: EngState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+  </si>
+  <si>
+    <t>ERPM</t>
+  </si>
+  <si>
+    <t>Engine speed</t>
+  </si>
+  <si>
+    <t>Epm_nEng</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -658,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,10 +858,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -965,6 +978,32 @@
       </c>
       <c r="H4" s="6" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6000</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
